--- a/WWW/posts/jellyfish-gfp-toolbox/post_info.xlsx
+++ b/WWW/posts/jellyfish-gfp-toolbox/post_info.xlsx
@@ -68,7 +68,7 @@
     <t>Post Blurb</t>
   </si>
   <si>
-    <t>How Fascination with Nature's Beauty Helped Create One of Scientists' Most Valuable Tools</t>
+    <t>GFP: A Valuable Tool That Resulted From Combining Fascination, Beauty and Science Together</t>
   </si>
   <si>
     <t>500 character max (inc spaces). Shorter is usually better. Aim for 200 characters.</t>
@@ -461,15 +461,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>193680</xdr:colOff>
+      <xdr:colOff>220680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>696960</xdr:colOff>
+      <xdr:colOff>723600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>178920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -482,8 +482,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="193680" y="11520"/>
-          <a:ext cx="503280" cy="570240"/>
+          <a:off x="220680" y="2520"/>
+          <a:ext cx="502920" cy="569880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -505,8 +505,8 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="171" zoomScaleNormal="171" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="171" zoomScaleNormal="171" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
